--- a/Excel Formulas Hack.xlsx
+++ b/Excel Formulas Hack.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Desktop\My_Programming_Menu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE9250E-E38E-4DB7-ACD3-193251862970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB7D09C-AD18-4DC9-8F03-CE17C52F389D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
   <si>
     <t>Full Name</t>
   </si>
@@ -139,12 +128,111 @@
   <si>
     <t>Pass/Fail</t>
   </si>
+  <si>
+    <t>ATTENDANCE SHEET</t>
+  </si>
+  <si>
+    <t>Names</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*** </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Instructions To Apply Checkboxes
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Select any cell (Developer tab should be enabled --&gt; File --&gt; Options --&gt; Customize Ribbon --&gt; Select Developer checkbox on right-side)
+2.Go to the Developer tab. 
+In the "Controls" group, click "Insert". 
+Select "Checkbox" from the list of form controls. 
+Click on the cell where you want to place the checkbox. 
+If you need more checkboxes, you can right-click the existing checkbox, select Copy, and then Paste.
+Right-click the checkbox and select "Edit Text" to modify the text displayed next to the checkbox. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*** TO automatically adjust column width as you make entry to the cell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. First select the tab that you are working on and right-click on it
+2. Click on &lt;View Code&gt;
+3. Select 'Worksheet' from the first drop-down menu on the pop-up modal
+4. between two lines, type below code;
+Cells.EntireColumn.AutoFit
+5. Then, close the window from right-top hand side </t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,8 +248,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,8 +277,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -198,14 +313,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -221,6 +499,4697 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp41.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp42.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp44.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp45.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp46.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp47.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp48.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp49.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp50.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp51.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp52.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp53.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp54.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp55.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp56.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp57.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp58.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp59.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp60.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp61.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp62.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp63.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp64.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp65.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp66.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Check Box 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Check Box 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Check Box 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1031" name="Check Box 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1031"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1032" name="Check Box 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1033" name="Check Box 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1033"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1034" name="Check Box 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1034"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Check Box 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1036" name="Check Box 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1036"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1037" name="Check Box 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1037"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1038" name="Check Box 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1038"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1039" name="Check Box 15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1039"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1040" name="Check Box 16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1040"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1041" name="Check Box 17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1041"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1042" name="Check Box 18" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1042"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1043" name="Check Box 19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1043"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1044" name="Check Box 20" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1044"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1045" name="Check Box 21" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1045"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1046" name="Check Box 22" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1046"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1047" name="Check Box 23" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1047"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1048" name="Check Box 24" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1048"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1049" name="Check Box 25" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1049"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1050" name="Check Box 26" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1050"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1051" name="Check Box 27" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1051"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1052" name="Check Box 28" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1052"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1053" name="Check Box 29" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1053"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1054" name="Check Box 30" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1054"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1055" name="Check Box 31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1055"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1056" name="Check Box 32" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1056"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1057" name="Check Box 33" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1057"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1058" name="Check Box 34" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1058"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1059" name="Check Box 35" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1059"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1060" name="Check Box 36" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1060"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1061" name="Check Box 37" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1061"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1062" name="Check Box 38" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1062"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1063" name="Check Box 39" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1063"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1064" name="Check Box 40" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1064"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1065" name="Check Box 41" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1065"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1066" name="Check Box 42" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1066"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1067" name="Check Box 43" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1067"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1068" name="Check Box 44" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1068"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1069" name="Check Box 45" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1069"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1070" name="Check Box 46" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1070"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1071" name="Check Box 47" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1071"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1072" name="Check Box 48" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1072"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1073" name="Check Box 49" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1073"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1074" name="Check Box 50" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1074"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1075" name="Check Box 51" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1075"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1076" name="Check Box 52" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1076"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1077" name="Check Box 53" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1077"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1078" name="Check Box 54" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1078"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1079" name="Check Box 55" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1079"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1080" name="Check Box 56" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1080"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1081" name="Check Box 57" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1081"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1082" name="Check Box 58" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1082"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>838200</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1083" name="Check Box 59" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1083"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1084" name="Check Box 60" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1084"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1085" name="Check Box 61" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1085"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1086" name="Check Box 62" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1086"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1087" name="Check Box 63" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1087"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1088" name="Check Box 64" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1088"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1089" name="Check Box 65" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1089"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1090" name="Check Box 66" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1090"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1091" name="Check Box 67" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1091"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1092" name="Check Box 68" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1092"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>99060</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1093" name="Check Box 69" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1093"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -485,11 +5454,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B2:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,7 +5474,7 @@
     <col min="10" max="10" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -529,8 +5499,14 @@
       <c r="J2" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="L2" s="10"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="12"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -557,8 +5533,14 @@
         <f>IF(OR(H3&lt;60,I3&lt;60),"Fail","Pass")</f>
         <v>Fail</v>
       </c>
+      <c r="L3" s="13"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="15"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
@@ -582,8 +5564,14 @@
         <f t="shared" ref="J4:J13" si="0">IF(OR(H4&lt;60,I4&lt;60),"Fail","Pass")</f>
         <v>Pass</v>
       </c>
+      <c r="L4" s="13"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="15"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
@@ -607,8 +5595,14 @@
         <f t="shared" si="0"/>
         <v>Fail</v>
       </c>
+      <c r="L5" s="13"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="15"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -632,8 +5626,14 @@
         <f t="shared" si="0"/>
         <v>Fail</v>
       </c>
+      <c r="L6" s="16"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="18"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
@@ -654,11 +5654,11 @@
         <v>63</v>
       </c>
       <c r="J7" s="1" t="str">
-        <f>IF(OR(H7&lt;60,I7&lt;60),"Fail","Pass")</f>
+        <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
@@ -683,7 +5683,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
@@ -708,7 +5708,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
@@ -733,7 +5733,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
@@ -758,7 +5758,7 @@
         <v>Pass</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
@@ -783,7 +5783,7 @@
         <v>Pass</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
@@ -808,8 +5808,1662 @@
         <v>Pass</v>
       </c>
     </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="e">
+        <f>COUNTIF(C17:H17,TRUE) / COUNTA(C17:H17)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="2:9" ht="188.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="30" spans="2:9" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B28:I28"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1027" r:id="rId4" name="Check Box 3">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1029" r:id="rId5" name="Check Box 5">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1030" r:id="rId6" name="Check Box 6">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1031" r:id="rId7" name="Check Box 7">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>228600</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1032" r:id="rId8" name="Check Box 8">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1034" r:id="rId9" name="Check Box 10">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1035" r:id="rId10" name="Check Box 11">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1036" r:id="rId11" name="Check Box 12">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1037" r:id="rId12" name="Check Box 13">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1038" r:id="rId13" name="Check Box 14">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1039" r:id="rId14" name="Check Box 15">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1040" r:id="rId15" name="Check Box 16">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1041" r:id="rId16" name="Check Box 17">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1042" r:id="rId17" name="Check Box 18">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1043" r:id="rId18" name="Check Box 19">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1044" r:id="rId19" name="Check Box 20">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1045" r:id="rId20" name="Check Box 21">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1046" r:id="rId21" name="Check Box 22">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1047" r:id="rId22" name="Check Box 23">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1048" r:id="rId23" name="Check Box 24">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1049" r:id="rId24" name="Check Box 25">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1050" r:id="rId25" name="Check Box 26">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1051" r:id="rId26" name="Check Box 27">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1052" r:id="rId27" name="Check Box 28">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1053" r:id="rId28" name="Check Box 29">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1054" r:id="rId29" name="Check Box 30">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1055" r:id="rId30" name="Check Box 31">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1056" r:id="rId31" name="Check Box 32">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1057" r:id="rId32" name="Check Box 33">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1058" r:id="rId33" name="Check Box 34">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1059" r:id="rId34" name="Check Box 35">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1060" r:id="rId35" name="Check Box 36">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1061" r:id="rId36" name="Check Box 37">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1062" r:id="rId37" name="Check Box 38">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1063" r:id="rId38" name="Check Box 39">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1064" r:id="rId39" name="Check Box 40">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>228600</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1065" r:id="rId40" name="Check Box 41">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1066" r:id="rId41" name="Check Box 42">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>228600</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1067" r:id="rId42" name="Check Box 43">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1068" r:id="rId43" name="Check Box 44">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>228600</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1069" r:id="rId44" name="Check Box 45">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1070" r:id="rId45" name="Check Box 46">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>228600</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1071" r:id="rId46" name="Check Box 47">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1072" r:id="rId47" name="Check Box 48">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>228600</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1073" r:id="rId48" name="Check Box 49">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1074" r:id="rId49" name="Check Box 50">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>228600</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1075" r:id="rId50" name="Check Box 51">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1076" r:id="rId51" name="Check Box 52">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>228600</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1077" r:id="rId52" name="Check Box 53">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1078" r:id="rId53" name="Check Box 54">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>228600</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1079" r:id="rId54" name="Check Box 55">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1080" r:id="rId55" name="Check Box 56">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>228600</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1081" r:id="rId56" name="Check Box 57">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1082" r:id="rId57" name="Check Box 58">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>228600</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1083" r:id="rId58" name="Check Box 59">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1084" r:id="rId59" name="Check Box 60">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1085" r:id="rId60" name="Check Box 61">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1086" r:id="rId61" name="Check Box 62">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1087" r:id="rId62" name="Check Box 63">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1088" r:id="rId63" name="Check Box 64">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1089" r:id="rId64" name="Check Box 65">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1090" r:id="rId65" name="Check Box 66">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1091" r:id="rId66" name="Check Box 67">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1092" r:id="rId67" name="Check Box 68">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1093" r:id="rId68" name="Check Box 69">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1033" r:id="rId69" name="Check Box 9">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>